--- a/medicine/Enfance/Susanne_Julien/Susanne_Julien.xlsx
+++ b/medicine/Enfance/Susanne_Julien/Susanne_Julien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Susanne Julien (1954-) est une écrivaine et une éducatrice québécoise née à Laval-des-Rapides[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Susanne Julien (1954-) est une écrivaine et une éducatrice québécoise née à Laval-des-Rapides.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auteure en littérature pour enfants, elle a étudié en éducation à l'UQAM[1]. Elle a travaillé avec les déficients intellectuels et a fait de l'animation dans une école privée. Elle écrit dans le fantastique et le réel. Susanne Julien écrit pour tous les âges : enfants, adolescents et adultes. Elle a écrit une cinquantaine de livres[2]. Elle a remporté deux prix[1] : le Prix de littérature-enfance Raymond Beauchemin de l'ACELF, pour Les mémoires d'une sorcière, en 1987, et le prix Cécile-Rouleau de l'ACELF pour Enfants de la Rébellion en 1988.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auteure en littérature pour enfants, elle a étudié en éducation à l'UQAM. Elle a travaillé avec les déficients intellectuels et a fait de l'animation dans une école privée. Elle écrit dans le fantastique et le réel. Susanne Julien écrit pour tous les âges : enfants, adolescents et adultes. Elle a écrit une cinquantaine de livres. Elle a remporté deux prix : le Prix de littérature-enfance Raymond Beauchemin de l'ACELF, pour Les mémoires d'une sorcière, en 1987, et le prix Cécile-Rouleau de l'ACELF pour Enfants de la Rébellion en 1988.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1988 : Les Mémoires d'une sorcière, Éditions Héritage inc.  (ISBN 2762544661)
 1988 : Les Sandales d'Ali-Boulouf, Éditions Héritage inc.  (ISBN 2762540194)
@@ -618,7 +634,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix de littérature-enfance Raymond-Beauchemin, 1987
 Prix Cécile-Rouleau, 1988</t>
